--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Postn-Ptk7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Postn-Ptk7.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.36018933333333</v>
+        <v>8.410411333333334</v>
       </c>
       <c r="H2">
-        <v>31.080568</v>
+        <v>25.231234</v>
       </c>
       <c r="I2">
-        <v>0.005638280859431426</v>
+        <v>0.004700308673809217</v>
       </c>
       <c r="J2">
-        <v>0.005724973729136561</v>
+        <v>0.004733981166790757</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.737758666666667</v>
+        <v>2.213484666666667</v>
       </c>
       <c r="N2">
-        <v>8.213276</v>
+        <v>6.640453999999999</v>
       </c>
       <c r="O2">
-        <v>0.2155392685809311</v>
+        <v>0.1355468747528199</v>
       </c>
       <c r="P2">
-        <v>0.2294598627058675</v>
+        <v>0.1561506731221149</v>
       </c>
       <c r="Q2">
-        <v>28.36369813564089</v>
+        <v>18.61631652669289</v>
       </c>
       <c r="R2">
-        <v>255.273283220768</v>
+        <v>167.546848740236</v>
       </c>
       <c r="S2">
-        <v>0.001215270932495713</v>
+        <v>0.0006371121511084109</v>
       </c>
       <c r="T2">
-        <v>0.001313651685882374</v>
+        <v>0.0007392143457417917</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.36018933333333</v>
+        <v>8.410411333333334</v>
       </c>
       <c r="H3">
-        <v>31.080568</v>
+        <v>25.231234</v>
       </c>
       <c r="I3">
-        <v>0.005638280859431426</v>
+        <v>0.004700308673809217</v>
       </c>
       <c r="J3">
-        <v>0.005724973729136561</v>
+        <v>0.004733981166790757</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>22.957177</v>
       </c>
       <c r="O3">
-        <v>0.602460350688687</v>
+        <v>0.4686085613268789</v>
       </c>
       <c r="P3">
-        <v>0.6413702257825379</v>
+        <v>0.5398393907304434</v>
       </c>
       <c r="Q3">
-        <v>79.2802334262818</v>
+        <v>64.35976720737979</v>
       </c>
       <c r="R3">
-        <v>713.5221008365361</v>
+        <v>579.237904866418</v>
       </c>
       <c r="S3">
-        <v>0.003396840663854369</v>
+        <v>0.002202604885425987</v>
       </c>
       <c r="T3">
-        <v>0.003671827693255414</v>
+        <v>0.002555589508809716</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.36018933333333</v>
+        <v>8.410411333333334</v>
       </c>
       <c r="H4">
-        <v>31.080568</v>
+        <v>25.231234</v>
       </c>
       <c r="I4">
-        <v>0.005638280859431426</v>
+        <v>0.004700308673809217</v>
       </c>
       <c r="J4">
-        <v>0.005724973729136561</v>
+        <v>0.004733981166790757</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.311751</v>
+        <v>6.464154000000001</v>
       </c>
       <c r="N4">
-        <v>4.623502</v>
+        <v>12.928308</v>
       </c>
       <c r="O4">
-        <v>0.182000380730382</v>
+        <v>0.3958445639203012</v>
       </c>
       <c r="P4">
-        <v>0.1291699115115946</v>
+        <v>0.3040099361474417</v>
       </c>
       <c r="Q4">
-        <v>23.95017805152267</v>
+        <v>54.36619406201201</v>
       </c>
       <c r="R4">
-        <v>143.701068309136</v>
+        <v>326.1971643720721</v>
       </c>
       <c r="S4">
-        <v>0.001026169263081345</v>
+        <v>0.001860591637274819</v>
       </c>
       <c r="T4">
-        <v>0.0007394943499987735</v>
+        <v>0.00143917731223925</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>5222.337646</v>
       </c>
       <c r="I5">
-        <v>0.9473767143164812</v>
+        <v>0.972865573481432</v>
       </c>
       <c r="J5">
-        <v>0.9619433540606744</v>
+        <v>0.979835075160667</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.737758666666667</v>
+        <v>2.213484666666667</v>
       </c>
       <c r="N5">
-        <v>8.213276</v>
+        <v>6.640453999999999</v>
       </c>
       <c r="O5">
-        <v>0.2155392685809311</v>
+        <v>0.1355468747528199</v>
       </c>
       <c r="P5">
-        <v>0.2294598627058675</v>
+        <v>0.1561506731221149</v>
       </c>
       <c r="Q5">
-        <v>4765.833383532033</v>
+        <v>3853.188101192365</v>
       </c>
       <c r="R5">
-        <v>42892.5004517883</v>
+        <v>34678.69291073128</v>
       </c>
       <c r="S5">
-        <v>0.2041968840743801</v>
+        <v>0.131868888040018</v>
       </c>
       <c r="T5">
-        <v>0.220727389953584</v>
+        <v>0.1530019065349962</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>5222.337646</v>
       </c>
       <c r="I6">
-        <v>0.9473767143164812</v>
+        <v>0.972865573481432</v>
       </c>
       <c r="J6">
-        <v>0.9619433540606744</v>
+        <v>0.979835075160667</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,10 +812,10 @@
         <v>22.957177</v>
       </c>
       <c r="O6">
-        <v>0.602460350688687</v>
+        <v>0.4686085613268789</v>
       </c>
       <c r="P6">
-        <v>0.6413702257825379</v>
+        <v>0.5398393907304434</v>
       </c>
       <c r="Q6">
         <v>13321.12552144282</v>
@@ -824,10 +824,10 @@
         <v>119890.1296929853</v>
       </c>
       <c r="S6">
-        <v>0.5707569075414033</v>
+        <v>0.4558931367535828</v>
       </c>
       <c r="T6">
-        <v>0.6169618261839065</v>
+        <v>0.5289535699910527</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5222.337646</v>
       </c>
       <c r="I7">
-        <v>0.9473767143164812</v>
+        <v>0.972865573481432</v>
       </c>
       <c r="J7">
-        <v>0.9619433540606744</v>
+        <v>0.979835075160667</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.311751</v>
+        <v>6.464154000000001</v>
       </c>
       <c r="N7">
-        <v>4.623502</v>
+        <v>12.928308</v>
       </c>
       <c r="O7">
-        <v>0.182000380730382</v>
+        <v>0.3958445639203012</v>
       </c>
       <c r="P7">
-        <v>0.1291699115115946</v>
+        <v>0.3040099361474417</v>
       </c>
       <c r="Q7">
-        <v>4024.248091826048</v>
+        <v>11252.66492791383</v>
       </c>
       <c r="R7">
-        <v>24145.48855095629</v>
+        <v>67515.98956748297</v>
       </c>
       <c r="S7">
-        <v>0.1724229227006979</v>
+        <v>0.3851035486878312</v>
       </c>
       <c r="T7">
-        <v>0.1242541379231839</v>
+        <v>0.2978795986346181</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.888270666666667</v>
+        <v>1.318483333333333</v>
       </c>
       <c r="H8">
-        <v>5.664812</v>
+        <v>3.95545</v>
       </c>
       <c r="I8">
-        <v>0.001027645346503238</v>
+        <v>0.0007368579730907598</v>
       </c>
       <c r="J8">
-        <v>0.00104344617770491</v>
+        <v>0.0007421367423480953</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.737758666666667</v>
+        <v>2.213484666666667</v>
       </c>
       <c r="N8">
-        <v>8.213276</v>
+        <v>6.640453999999999</v>
       </c>
       <c r="O8">
-        <v>0.2155392685809311</v>
+        <v>0.1355468747528199</v>
       </c>
       <c r="P8">
-        <v>0.2294598627058675</v>
+        <v>0.1561506731221149</v>
       </c>
       <c r="Q8">
-        <v>5.169629382679112</v>
+        <v>2.918442641588888</v>
       </c>
       <c r="R8">
-        <v>46.52666444411201</v>
+        <v>26.2659837743</v>
       </c>
       <c r="S8">
-        <v>0.0002214979263459055</v>
+        <v>9.987879538914996E-05</v>
       </c>
       <c r="T8">
-        <v>0.0002394290166771309</v>
+        <v>0.0001158851518663087</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1.888270666666667</v>
+        <v>1.318483333333333</v>
       </c>
       <c r="H9">
-        <v>5.664812</v>
+        <v>3.95545</v>
       </c>
       <c r="I9">
-        <v>0.001027645346503238</v>
+        <v>0.0007368579730907598</v>
       </c>
       <c r="J9">
-        <v>0.00104344617770491</v>
+        <v>0.0007421367423480953</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +998,22 @@
         <v>22.957177</v>
       </c>
       <c r="O9">
-        <v>0.602460350688687</v>
+        <v>0.4686085613268789</v>
       </c>
       <c r="P9">
-        <v>0.6413702257825379</v>
+        <v>0.5398393907304434</v>
       </c>
       <c r="Q9">
-        <v>14.44978797285822</v>
+        <v>10.08955175162778</v>
       </c>
       <c r="R9">
-        <v>130.048091755724</v>
+        <v>90.80596576465</v>
       </c>
       <c r="S9">
-        <v>0.0006191155758379381</v>
+        <v>0.000345297954672301</v>
       </c>
       <c r="T9">
-        <v>0.0006692353105865243</v>
+        <v>0.0004006346468278718</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.888270666666667</v>
+        <v>1.318483333333333</v>
       </c>
       <c r="H10">
-        <v>5.664812</v>
+        <v>3.95545</v>
       </c>
       <c r="I10">
-        <v>0.001027645346503238</v>
+        <v>0.0007368579730907598</v>
       </c>
       <c r="J10">
-        <v>0.00104344617770491</v>
+        <v>0.0007421367423480953</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.311751</v>
+        <v>6.464154000000001</v>
       </c>
       <c r="N10">
-        <v>4.623502</v>
+        <v>12.928308</v>
       </c>
       <c r="O10">
-        <v>0.182000380730382</v>
+        <v>0.3958445639203012</v>
       </c>
       <c r="P10">
-        <v>0.1291699115115946</v>
+        <v>0.3040099361474417</v>
       </c>
       <c r="Q10">
-        <v>4.365211601937334</v>
+        <v>8.522879313100001</v>
       </c>
       <c r="R10">
-        <v>26.191269611624</v>
+        <v>51.1372758786</v>
       </c>
       <c r="S10">
-        <v>0.0001870318443193947</v>
+        <v>0.0002916812230293088</v>
       </c>
       <c r="T10">
-        <v>0.0001347818504412549</v>
+        <v>0.0002256169436539149</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>83.47417249999999</v>
+        <v>38.182192</v>
       </c>
       <c r="H11">
-        <v>166.948345</v>
+        <v>76.364384</v>
       </c>
       <c r="I11">
-        <v>0.04542878647490873</v>
+        <v>0.02133880034277938</v>
       </c>
       <c r="J11">
-        <v>0.03075152581663974</v>
+        <v>0.0143277794367718</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.737758666666667</v>
+        <v>2.213484666666667</v>
       </c>
       <c r="N11">
-        <v>8.213276</v>
+        <v>6.640453999999999</v>
       </c>
       <c r="O11">
-        <v>0.2155392685809311</v>
+        <v>0.1355468747528199</v>
       </c>
       <c r="P11">
-        <v>0.2294598627058675</v>
+        <v>0.1561506731221149</v>
       </c>
       <c r="Q11">
-        <v>228.5321392047033</v>
+        <v>84.51569653172267</v>
       </c>
       <c r="R11">
-        <v>1371.19283522822</v>
+        <v>507.0941791903359</v>
       </c>
       <c r="S11">
-        <v>0.009791687409321124</v>
+        <v>0.002892407697438146</v>
       </c>
       <c r="T11">
-        <v>0.007056240891882094</v>
+        <v>0.002237292403397113</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.47417249999999</v>
+        <v>38.182192</v>
       </c>
       <c r="H12">
-        <v>166.948345</v>
+        <v>76.364384</v>
       </c>
       <c r="I12">
-        <v>0.04542878647490873</v>
+        <v>0.02133880034277938</v>
       </c>
       <c r="J12">
-        <v>0.03075152581663974</v>
+        <v>0.0143277794367718</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,22 +1184,22 @@
         <v>22.957177</v>
       </c>
       <c r="O12">
-        <v>0.602460350688687</v>
+        <v>0.4686085613268789</v>
       </c>
       <c r="P12">
-        <v>0.6413702257825379</v>
+        <v>0.5398393907304434</v>
       </c>
       <c r="Q12">
-        <v>638.7771176703442</v>
+        <v>292.1851133306614</v>
       </c>
       <c r="R12">
-        <v>3832.662706022065</v>
+        <v>1753.110679983968</v>
       </c>
       <c r="S12">
-        <v>0.02736904263103499</v>
+        <v>0.009999544529071354</v>
       </c>
       <c r="T12">
-        <v>0.01972311305617577</v>
+        <v>0.007734699721667063</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.47417249999999</v>
+        <v>38.182192</v>
       </c>
       <c r="H13">
-        <v>166.948345</v>
+        <v>76.364384</v>
       </c>
       <c r="I13">
-        <v>0.04542878647490873</v>
+        <v>0.02133880034277938</v>
       </c>
       <c r="J13">
-        <v>0.03075152581663974</v>
+        <v>0.0143277794367718</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.311751</v>
+        <v>6.464154000000001</v>
       </c>
       <c r="N13">
-        <v>4.623502</v>
+        <v>12.928308</v>
       </c>
       <c r="O13">
-        <v>0.182000380730382</v>
+        <v>0.3958445639203012</v>
       </c>
       <c r="P13">
-        <v>0.1291699115115946</v>
+        <v>0.3040099361474417</v>
       </c>
       <c r="Q13">
-        <v>192.9715017510475</v>
+        <v>246.815569145568</v>
       </c>
       <c r="R13">
-        <v>771.88600700419</v>
+        <v>987.2622765822721</v>
       </c>
       <c r="S13">
-        <v>0.008268056434552615</v>
+        <v>0.008446848116269876</v>
       </c>
       <c r="T13">
-        <v>0.003972171868581873</v>
+        <v>0.004355787311707622</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9712386666666667</v>
+        <v>0.6414029999999999</v>
       </c>
       <c r="H14">
-        <v>2.913716</v>
+        <v>1.924209</v>
       </c>
       <c r="I14">
-        <v>0.000528573002675469</v>
+        <v>0.0003584595288887479</v>
       </c>
       <c r="J14">
-        <v>0.0005367002158443456</v>
+        <v>0.0003610274934222114</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.737758666666667</v>
+        <v>2.213484666666667</v>
       </c>
       <c r="N14">
-        <v>8.213276</v>
+        <v>6.640453999999999</v>
       </c>
       <c r="O14">
-        <v>0.2155392685809311</v>
+        <v>0.1355468747528199</v>
       </c>
       <c r="P14">
-        <v>0.2294598627058675</v>
+        <v>0.1561506731221149</v>
       </c>
       <c r="Q14">
-        <v>2.659017077068444</v>
+        <v>1.419735705654</v>
       </c>
       <c r="R14">
-        <v>23.931153693616</v>
+        <v>12.777621350886</v>
       </c>
       <c r="S14">
-        <v>0.0001139282383882971</v>
+        <v>4.858806886623794E-05</v>
       </c>
       <c r="T14">
-        <v>0.000123151157841853</v>
+        <v>5.637468611346822E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9712386666666667</v>
+        <v>0.6414029999999999</v>
       </c>
       <c r="H15">
-        <v>2.913716</v>
+        <v>1.924209</v>
       </c>
       <c r="I15">
-        <v>0.000528573002675469</v>
+        <v>0.0003584595288887479</v>
       </c>
       <c r="J15">
-        <v>0.0005367002158443456</v>
+        <v>0.0003610274934222114</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>22.957177</v>
       </c>
       <c r="O15">
-        <v>0.602460350688687</v>
+        <v>0.4686085613268789</v>
       </c>
       <c r="P15">
-        <v>0.6413702257825379</v>
+        <v>0.5398393907304434</v>
       </c>
       <c r="Q15">
-        <v>7.43229932663689</v>
+        <v>4.908267399777</v>
       </c>
       <c r="R15">
-        <v>66.890693939732</v>
+        <v>44.174406597993</v>
       </c>
       <c r="S15">
-        <v>0.0003184442765564353</v>
+        <v>0.0001679772041264669</v>
       </c>
       <c r="T15">
-        <v>0.0003442235386136248</v>
+        <v>0.0001948968620859858</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9712386666666667</v>
+        <v>0.6414029999999999</v>
       </c>
       <c r="H16">
-        <v>2.913716</v>
+        <v>1.924209</v>
       </c>
       <c r="I16">
-        <v>0.000528573002675469</v>
+        <v>0.0003584595288887479</v>
       </c>
       <c r="J16">
-        <v>0.0005367002158443456</v>
+        <v>0.0003610274934222114</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.311751</v>
+        <v>6.464154000000001</v>
       </c>
       <c r="N16">
-        <v>4.623502</v>
+        <v>12.928308</v>
       </c>
       <c r="O16">
-        <v>0.182000380730382</v>
+        <v>0.3958445639203012</v>
       </c>
       <c r="P16">
-        <v>0.1291699115115946</v>
+        <v>0.3040099361474417</v>
       </c>
       <c r="Q16">
-        <v>2.245261958905334</v>
+        <v>4.146127768062</v>
       </c>
       <c r="R16">
-        <v>13.471571753432</v>
+        <v>24.876766608372</v>
       </c>
       <c r="S16">
-        <v>9.620048773073656E-05</v>
+        <v>0.000141894255896043</v>
       </c>
       <c r="T16">
-        <v>6.932551938886786E-05</v>
+        <v>0.0001097559452227574</v>
       </c>
     </row>
   </sheetData>
